--- a/megareport.xlsx
+++ b/megareport.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="100">
   <si>
     <t xml:space="preserve">TAS SUMMARY  </t>
   </si>
@@ -217,6 +217,156 @@
   </si>
   <si>
     <t>testid90</t>
+  </si>
+  <si>
+    <t>Audrey Fryer</t>
+  </si>
+  <si>
+    <t>testdmlect</t>
+  </si>
+  <si>
+    <t>William Ballew</t>
+  </si>
+  <si>
+    <t>csfffffffff</t>
+  </si>
+  <si>
+    <t>Mark Zarb</t>
+  </si>
+  <si>
+    <t>test404040</t>
+  </si>
+  <si>
+    <t>Susan Craw</t>
+  </si>
+  <si>
+    <t>testid888888888</t>
+  </si>
+  <si>
+    <t>Ines Arana</t>
+  </si>
+  <si>
+    <t>testid34</t>
+  </si>
+  <si>
+    <t>Andrei Petrovski</t>
+  </si>
+  <si>
+    <t>testidcsdmtest2</t>
+  </si>
+  <si>
+    <t>Eyad Elyan</t>
+  </si>
+  <si>
+    <t>csdmtestid27</t>
+  </si>
+  <si>
+    <t>Omar Al Kadri</t>
+  </si>
+  <si>
+    <t>csdm test 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nirmalie Chandrika Wiratunga</t>
+  </si>
+  <si>
+    <t>test353535562627</t>
+  </si>
+  <si>
+    <t>Robert McKay Lothian</t>
+  </si>
+  <si>
+    <t>testid77777777</t>
+  </si>
+  <si>
+    <t>Joanne Lytwynenko</t>
+  </si>
+  <si>
+    <t>testidcsdm</t>
+  </si>
+  <si>
+    <t>Yann Savoye</t>
+  </si>
+  <si>
+    <t>test5662233</t>
+  </si>
+  <si>
+    <t>Carlos Francisco Moreno Garcia</t>
+  </si>
+  <si>
+    <t>testid66782882828228</t>
+  </si>
+  <si>
+    <t>Hatem Ahriz</t>
+  </si>
+  <si>
+    <t>csdmtest01</t>
+  </si>
+  <si>
+    <t>John Alexander Wyper McCall</t>
+  </si>
+  <si>
+    <t>testidcsdmmgmt</t>
+  </si>
+  <si>
+    <t>Kit-ying Hui</t>
+  </si>
+  <si>
+    <t>testetetststetsts</t>
+  </si>
+  <si>
+    <t>David Peter Lonie</t>
+  </si>
+  <si>
+    <t>tetsid89</t>
+  </si>
+  <si>
+    <t>Roger Joseph McDermott</t>
+  </si>
+  <si>
+    <t>testidcsdm2121</t>
+  </si>
+  <si>
+    <t>John Patrick Isaacs</t>
+  </si>
+  <si>
+    <t>test677889900</t>
+  </si>
+  <si>
+    <t>Yang Jiang</t>
+  </si>
+  <si>
+    <t>newid90</t>
+  </si>
+  <si>
+    <t>Patrik O'Brian Holt</t>
+  </si>
+  <si>
+    <t>newtest78</t>
+  </si>
+  <si>
+    <t>Michael James Heron</t>
+  </si>
+  <si>
+    <t>testacccsdm</t>
+  </si>
+  <si>
+    <t>Ian Stuart Harris</t>
+  </si>
+  <si>
+    <t>newtest6687</t>
+  </si>
+  <si>
+    <t>Jean-Claude Raymond Rolin Golovine</t>
+  </si>
+  <si>
+    <t>csdmtest6666666</t>
+  </si>
+  <si>
+    <t>Christopher David McDermott</t>
+  </si>
+  <si>
+    <t>testidcsdmlecturer</t>
   </si>
 </sst>
 </file>
@@ -3012,25 +3162,25 @@
     </row>
     <row r="10" spans="1:34" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="C10" s="17" t="n">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="D10" s="20" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="E10" s="20" t="n">
-        <v>0.01</v>
+        <v>0.0</v>
       </c>
       <c r="F10" s="20" t="n">
         <v>0.0</v>
       </c>
       <c r="G10" s="20" t="n">
-        <v>0.06</v>
+        <v>0.0</v>
       </c>
       <c r="H10" s="20" t="n">
         <v>0.0</v>
@@ -3042,7 +3192,7 @@
         <v>0.0</v>
       </c>
       <c r="K10" s="20" t="n">
-        <v>0.04</v>
+        <v>0.0</v>
       </c>
       <c r="L10" s="20" t="n">
         <v>0.0</v>
@@ -3051,10 +3201,10 @@
         <v>0.0</v>
       </c>
       <c r="N10" s="20" t="n">
-        <v>0.02</v>
+        <v>0.0</v>
       </c>
       <c r="O10" s="20" t="n">
-        <v>0.03</v>
+        <v>0.0</v>
       </c>
       <c r="P10" s="20" t="n">
         <v>0.0</v>
@@ -3063,31 +3213,31 @@
         <v>0.0</v>
       </c>
       <c r="R10" s="20" t="n">
-        <v>0.4</v>
+        <v>0.15</v>
       </c>
       <c r="S10" s="20" t="n">
-        <v>0.0</v>
+        <v>0.15</v>
       </c>
       <c r="T10" s="20" t="n">
         <v>0.0</v>
       </c>
       <c r="U10" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V10" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W10" s="20" t="n">
         <v>0.05</v>
       </c>
-      <c r="V10" s="20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W10" s="20" t="n">
-        <v>0.02</v>
-      </c>
       <c r="X10" s="54" t="n">
-        <v>1.04</v>
+        <v>0.8</v>
       </c>
       <c r="Z10" s="31" t="n">
-        <v>13.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA10" s="26" t="n">
-        <v>0.13999999999999999</v>
+        <v>0.0</v>
       </c>
       <c r="AB10" s="2"/>
       <c r="AC10" s="11"/>
@@ -3095,25 +3245,25 @@
     </row>
     <row r="11" spans="1:34" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="C11" s="17" t="n">
-        <v>0.23</v>
+        <v>0.68</v>
       </c>
       <c r="D11" s="20" t="n">
-        <v>0.2</v>
+        <v>0.32</v>
       </c>
       <c r="E11" s="20" t="n">
-        <v>0.45</v>
+        <v>0.0</v>
       </c>
       <c r="F11" s="20" t="n">
         <v>0.0</v>
       </c>
       <c r="G11" s="20" t="n">
-        <v>0.55</v>
+        <v>0.0</v>
       </c>
       <c r="H11" s="20" t="n">
         <v>0.0</v>
@@ -3134,10 +3284,10 @@
         <v>0.0</v>
       </c>
       <c r="N11" s="20" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="O11" s="20" t="n">
-        <v>0.03</v>
+        <v>0.0</v>
       </c>
       <c r="P11" s="20" t="n">
         <v>0.0</v>
@@ -3146,7 +3296,7 @@
         <v>0.0</v>
       </c>
       <c r="R11" s="20" t="n">
-        <v>0.4</v>
+        <v>0.0</v>
       </c>
       <c r="S11" s="20" t="n">
         <v>0.0</v>
@@ -3155,22 +3305,22 @@
         <v>0.0</v>
       </c>
       <c r="U11" s="20" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="V11" s="20" t="n">
         <v>0.0</v>
       </c>
       <c r="W11" s="20" t="n">
-        <v>0.02</v>
+        <v>0.0</v>
       </c>
       <c r="X11" s="54" t="n">
-        <v>2.5600000000000005</v>
+        <v>1.0</v>
       </c>
       <c r="Z11" s="31" t="n">
-        <v>13.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA11" s="26" t="n">
-        <v>1.03</v>
+        <v>0.0</v>
       </c>
       <c r="AB11" s="2"/>
       <c r="AC11" s="11"/>
@@ -3178,25 +3328,25 @@
     </row>
     <row r="12" spans="1:34" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="C12" s="17" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="D12" s="20" t="n">
         <v>0.2</v>
       </c>
       <c r="E12" s="20" t="n">
-        <v>0.45</v>
+        <v>0.0</v>
       </c>
       <c r="F12" s="20" t="n">
         <v>0.0</v>
       </c>
       <c r="G12" s="20" t="n">
-        <v>0.55</v>
+        <v>0.0</v>
       </c>
       <c r="H12" s="20" t="n">
         <v>0.0</v>
@@ -3208,7 +3358,7 @@
         <v>0.0</v>
       </c>
       <c r="K12" s="20" t="n">
-        <v>0.55</v>
+        <v>0.0</v>
       </c>
       <c r="L12" s="20" t="n">
         <v>0.0</v>
@@ -3217,7 +3367,7 @@
         <v>0.0</v>
       </c>
       <c r="N12" s="20" t="n">
-        <v>0.62</v>
+        <v>0.1</v>
       </c>
       <c r="O12" s="20" t="n">
         <v>0.0</v>
@@ -3229,716 +3379,1858 @@
         <v>0.0</v>
       </c>
       <c r="R12" s="20" t="n">
-        <v>0.4</v>
+        <v>0.05</v>
       </c>
       <c r="S12" s="20" t="n">
-        <v>0.0</v>
+        <v>0.15</v>
       </c>
       <c r="T12" s="20" t="n">
         <v>0.0</v>
       </c>
       <c r="U12" s="20" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="V12" s="20" t="n">
         <v>0.0</v>
       </c>
       <c r="W12" s="20" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="X12" s="54" t="n">
-        <v>3.5700000000000003</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="Z12" s="31" t="n">
-        <v>13.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA12" s="26" t="n">
-        <v>1.55</v>
+        <v>0.0</v>
       </c>
       <c r="AB12" s="2"/>
       <c r="AC12" s="11"/>
       <c r="AD12" s="11"/>
     </row>
     <row r="13" spans="1:34" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
-      <c r="W13" s="20"/>
-      <c r="X13" s="54"/>
-      <c r="Z13" s="31"/>
-      <c r="AA13" s="26"/>
+      <c r="A13" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="17" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="D13" s="20" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E13" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F13" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G13" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H13" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I13" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J13" s="20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K13" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L13" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M13" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N13" s="20" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="O13" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P13" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q13" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R13" s="20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="S13" s="20" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="T13" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U13" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V13" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W13" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X13" s="54" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="Z13" s="31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA13" s="26" t="n">
+        <v>0.1</v>
+      </c>
       <c r="AB13" s="2"/>
       <c r="AC13" s="11"/>
       <c r="AD13" s="11"/>
     </row>
     <row r="14" spans="1:34" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="20"/>
-      <c r="W14" s="20"/>
-      <c r="X14" s="54"/>
-      <c r="Z14" s="31"/>
-      <c r="AA14" s="26"/>
+      <c r="A14" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="17" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="D14" s="20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E14" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F14" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G14" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H14" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I14" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J14" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K14" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L14" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M14" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N14" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O14" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P14" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q14" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R14" s="20" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="S14" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T14" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U14" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V14" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W14" s="20" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="X14" s="54" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="Z14" s="31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA14" s="26" t="n">
+        <v>0.0</v>
+      </c>
       <c r="AB14" s="2"/>
       <c r="AC14" s="11"/>
       <c r="AD14" s="11"/>
     </row>
     <row r="15" spans="1:34" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
+      <c r="A15" s="10" t="s">
+        <v>86</v>
+      </c>
       <c r="B15" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="17"/>
-      <c r="W15" s="17"/>
-      <c r="X15" s="53"/>
-      <c r="Z15" s="31"/>
-      <c r="AA15" s="26"/>
+        <v>87</v>
+      </c>
+      <c r="C15" s="17" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D15" s="17" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="E15" s="17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F15" s="17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G15" s="17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H15" s="17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I15" s="17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J15" s="17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K15" s="17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L15" s="17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M15" s="17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N15" s="17" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="O15" s="17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P15" s="17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q15" s="17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R15" s="17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S15" s="17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T15" s="17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U15" s="17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V15" s="17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W15" s="17" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="X15" s="53" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="Z15" s="31" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AA15" s="26" t="n">
+        <v>0.0</v>
+      </c>
       <c r="AB15" s="2"/>
       <c r="AC15" s="11"/>
       <c r="AD15" s="11"/>
     </row>
     <row r="16" spans="1:34" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="20"/>
-      <c r="V16" s="20"/>
-      <c r="W16" s="20"/>
-      <c r="X16" s="20"/>
-      <c r="Z16" s="31"/>
-      <c r="AA16" s="26"/>
+      <c r="A16" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D16" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E16" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F16" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G16" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H16" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I16" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J16" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K16" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L16" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M16" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N16" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O16" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P16" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q16" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R16" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S16" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T16" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U16" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V16" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W16" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X16" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z16" s="31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA16" s="26" t="n">
+        <v>0.0</v>
+      </c>
       <c r="AB16" s="2"/>
       <c r="AC16" s="11"/>
       <c r="AD16" s="11"/>
     </row>
     <row r="17" spans="1:30" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="20"/>
-      <c r="U17" s="20"/>
-      <c r="V17" s="20"/>
-      <c r="W17" s="20"/>
-      <c r="X17" s="20"/>
-      <c r="Z17" s="31"/>
-      <c r="AA17" s="26"/>
+      <c r="A17" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="17" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D17" s="20" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E17" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F17" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G17" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H17" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I17" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J17" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K17" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L17" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M17" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N17" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O17" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P17" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q17" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R17" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S17" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T17" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U17" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V17" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W17" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X17" s="20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z17" s="31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA17" s="26" t="n">
+        <v>0.0</v>
+      </c>
       <c r="AB17" s="2"/>
       <c r="AC17" s="11"/>
       <c r="AD17" s="11"/>
     </row>
     <row r="18" spans="1:30" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="20"/>
-      <c r="U18" s="20"/>
-      <c r="V18" s="20"/>
-      <c r="W18" s="20"/>
-      <c r="X18" s="20"/>
-      <c r="Z18" s="31"/>
-      <c r="AA18" s="26"/>
+      <c r="A18" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="17" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D18" s="20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E18" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F18" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G18" s="20" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H18" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I18" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J18" s="20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K18" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L18" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M18" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N18" s="20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O18" s="20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P18" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q18" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R18" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S18" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T18" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U18" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V18" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W18" s="20" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="X18" s="20" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Z18" s="31" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AA18" s="26" t="n">
+        <v>0.6</v>
+      </c>
       <c r="AB18" s="2"/>
       <c r="AC18" s="11"/>
       <c r="AD18" s="11"/>
     </row>
     <row r="19" spans="1:30" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="20"/>
-      <c r="U19" s="20"/>
-      <c r="V19" s="20"/>
-      <c r="W19" s="20"/>
-      <c r="X19" s="20"/>
-      <c r="Z19" s="31"/>
-      <c r="AA19" s="26"/>
+      <c r="A19" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="17" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D19" s="20" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="E19" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F19" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G19" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H19" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I19" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J19" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K19" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L19" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M19" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N19" s="20" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="O19" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P19" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q19" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R19" s="20" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="S19" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T19" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U19" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V19" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W19" s="20" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="X19" s="20" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Z19" s="31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA19" s="26" t="n">
+        <v>0.0</v>
+      </c>
       <c r="AB19" s="2"/>
       <c r="AC19" s="11"/>
       <c r="AD19" s="11"/>
     </row>
     <row r="20" spans="1:30" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="20"/>
-      <c r="T20" s="20"/>
-      <c r="U20" s="20"/>
-      <c r="V20" s="20"/>
-      <c r="W20" s="20"/>
-      <c r="X20" s="20"/>
-      <c r="Z20" s="31"/>
-      <c r="AA20" s="26"/>
+      <c r="A20" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D20" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E20" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F20" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G20" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H20" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I20" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J20" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K20" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L20" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M20" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N20" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O20" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P20" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q20" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R20" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S20" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T20" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U20" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V20" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W20" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X20" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z20" s="31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA20" s="26" t="n">
+        <v>0.0</v>
+      </c>
       <c r="AB20" s="2"/>
       <c r="AC20" s="11"/>
       <c r="AD20" s="11"/>
     </row>
     <row r="21" spans="1:30" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="20"/>
-      <c r="T21" s="20"/>
-      <c r="U21" s="20"/>
-      <c r="V21" s="20"/>
-      <c r="W21" s="20"/>
-      <c r="X21" s="20"/>
-      <c r="Z21" s="31"/>
-      <c r="AA21" s="26"/>
+      <c r="A21" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D21" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E21" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F21" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G21" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H21" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I21" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J21" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K21" s="20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L21" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M21" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N21" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O21" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P21" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q21" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R21" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S21" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T21" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U21" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V21" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W21" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X21" s="20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z21" s="31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA21" s="26" t="n">
+        <v>1.0</v>
+      </c>
       <c r="AB21" s="2"/>
       <c r="AC21" s="11"/>
       <c r="AD21" s="11"/>
     </row>
     <row r="22" spans="1:30" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="20"/>
-      <c r="T22" s="20"/>
-      <c r="U22" s="20"/>
-      <c r="V22" s="20"/>
-      <c r="W22" s="20"/>
-      <c r="X22" s="20"/>
-      <c r="Z22" s="31"/>
-      <c r="AA22" s="26"/>
+      <c r="A22" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="17" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D22" s="20" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E22" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F22" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G22" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H22" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I22" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J22" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K22" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L22" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M22" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N22" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O22" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P22" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q22" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R22" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S22" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T22" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U22" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V22" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W22" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X22" s="20" t="n">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="Z22" s="31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA22" s="26" t="n">
+        <v>0.0</v>
+      </c>
       <c r="AB22" s="2"/>
       <c r="AC22" s="11"/>
       <c r="AD22" s="11"/>
     </row>
     <row r="23" spans="1:30" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="20"/>
-      <c r="S23" s="20"/>
-      <c r="T23" s="20"/>
-      <c r="U23" s="20"/>
-      <c r="V23" s="20"/>
-      <c r="W23" s="20"/>
-      <c r="X23" s="20"/>
-      <c r="Z23" s="31"/>
-      <c r="AA23" s="26"/>
+      <c r="A23" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="17" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D23" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E23" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F23" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G23" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H23" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I23" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J23" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K23" s="20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L23" s="20" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M23" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N23" s="20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O23" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P23" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q23" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R23" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S23" s="20" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="T23" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U23" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V23" s="20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W23" s="20" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="X23" s="20" t="n">
+        <v>0.41000000000000003</v>
+      </c>
+      <c r="Z23" s="31" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AA23" s="26" t="n">
+        <v>0.11</v>
+      </c>
       <c r="AB23" s="2"/>
       <c r="AC23" s="11"/>
       <c r="AD23" s="11"/>
     </row>
     <row r="24" spans="1:30" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="20"/>
-      <c r="S24" s="20"/>
-      <c r="T24" s="20"/>
-      <c r="U24" s="20"/>
-      <c r="V24" s="20"/>
-      <c r="W24" s="20"/>
-      <c r="X24" s="20"/>
-      <c r="Z24" s="31"/>
-      <c r="AA24" s="26"/>
+      <c r="A24" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="17" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D24" s="20" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E24" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F24" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G24" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H24" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I24" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J24" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K24" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L24" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M24" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N24" s="20" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="O24" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P24" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q24" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R24" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S24" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T24" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U24" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V24" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W24" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X24" s="20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z24" s="31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA24" s="26" t="n">
+        <v>0.0</v>
+      </c>
       <c r="AB24" s="2"/>
       <c r="AC24" s="11"/>
       <c r="AD24" s="11"/>
     </row>
     <row r="25" spans="1:30" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="20"/>
-      <c r="T25" s="20"/>
-      <c r="U25" s="20"/>
-      <c r="V25" s="20"/>
-      <c r="W25" s="20"/>
-      <c r="X25" s="20"/>
-      <c r="Z25" s="31"/>
-      <c r="AA25" s="26"/>
+      <c r="A25" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="17" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D25" s="20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E25" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F25" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G25" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H25" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I25" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J25" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K25" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L25" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M25" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N25" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O25" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P25" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q25" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R25" s="20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="S25" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T25" s="20" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="U25" s="20" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="V25" s="20" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="W25" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X25" s="20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z25" s="31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA25" s="26" t="n">
+        <v>0.0</v>
+      </c>
       <c r="AB25" s="2"/>
       <c r="AC25" s="11"/>
       <c r="AD25" s="11"/>
     </row>
     <row r="26" spans="1:30" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="20"/>
-      <c r="S26" s="20"/>
-      <c r="T26" s="20"/>
-      <c r="U26" s="20"/>
-      <c r="V26" s="20"/>
-      <c r="W26" s="20"/>
-      <c r="X26" s="20"/>
-      <c r="Z26" s="31"/>
-      <c r="AA26" s="26"/>
+      <c r="A26" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="17" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D26" s="20" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E26" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F26" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G26" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H26" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I26" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J26" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K26" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L26" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M26" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N26" s="20" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="O26" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P26" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q26" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R26" s="20" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="S26" s="20" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="T26" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U26" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V26" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W26" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X26" s="20" t="n">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="Z26" s="31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA26" s="26" t="n">
+        <v>0.0</v>
+      </c>
       <c r="AB26" s="2"/>
       <c r="AC26" s="11"/>
       <c r="AD26" s="11"/>
     </row>
     <row r="27" spans="1:30" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="20"/>
-      <c r="S27" s="20"/>
-      <c r="T27" s="20"/>
-      <c r="U27" s="20"/>
-      <c r="V27" s="20"/>
-      <c r="W27" s="20"/>
-      <c r="X27" s="20"/>
-      <c r="Z27" s="31"/>
-      <c r="AA27" s="26"/>
+      <c r="A27" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D27" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E27" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F27" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G27" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H27" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I27" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J27" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K27" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L27" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M27" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N27" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O27" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P27" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q27" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R27" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S27" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T27" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U27" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V27" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W27" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X27" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z27" s="31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA27" s="26" t="n">
+        <v>0.0</v>
+      </c>
       <c r="AB27" s="2"/>
       <c r="AC27" s="11"/>
       <c r="AD27" s="11"/>
     </row>
     <row r="28" spans="1:30" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="20"/>
-      <c r="S28" s="20"/>
-      <c r="T28" s="20"/>
-      <c r="U28" s="20"/>
-      <c r="V28" s="20"/>
-      <c r="W28" s="20"/>
-      <c r="X28" s="20"/>
-      <c r="Z28" s="31"/>
-      <c r="AA28" s="26"/>
+      <c r="A28" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="17" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="D28" s="20" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E28" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F28" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G28" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H28" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I28" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J28" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K28" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L28" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M28" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N28" s="20" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O28" s="20" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="P28" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q28" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R28" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S28" s="20" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T28" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U28" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V28" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W28" s="20" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="X28" s="20" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="Z28" s="31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA28" s="26" t="n">
+        <v>0.08</v>
+      </c>
       <c r="AB28" s="2"/>
       <c r="AC28" s="11"/>
       <c r="AD28" s="11"/>
     </row>
     <row r="29" spans="1:30" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="20"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="20"/>
-      <c r="T29" s="20"/>
-      <c r="U29" s="20"/>
-      <c r="V29" s="20"/>
-      <c r="W29" s="20"/>
-      <c r="X29" s="20"/>
-      <c r="Z29" s="31"/>
-      <c r="AA29" s="26"/>
+      <c r="A29" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="17" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D29" s="20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E29" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F29" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G29" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H29" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I29" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J29" s="20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K29" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L29" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M29" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N29" s="20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O29" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P29" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q29" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R29" s="20" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="S29" s="20" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="T29" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U29" s="20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="V29" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W29" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X29" s="20" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Z29" s="31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA29" s="26" t="n">
+        <v>0.1</v>
+      </c>
       <c r="AB29" s="2"/>
       <c r="AC29" s="11"/>
       <c r="AD29" s="11"/>
     </row>
     <row r="30" spans="1:30" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="20"/>
-      <c r="R30" s="20"/>
-      <c r="S30" s="20"/>
-      <c r="T30" s="20"/>
-      <c r="U30" s="20"/>
-      <c r="V30" s="20"/>
-      <c r="W30" s="20"/>
-      <c r="X30" s="20"/>
-      <c r="Z30" s="31"/>
-      <c r="AA30" s="26"/>
+      <c r="A30" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D30" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E30" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F30" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G30" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H30" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I30" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J30" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K30" s="20" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L30" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M30" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N30" s="20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O30" s="20" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="P30" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q30" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R30" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S30" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T30" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U30" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V30" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W30" s="20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="X30" s="20" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Z30" s="31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA30" s="26" t="n">
+        <v>0.7</v>
+      </c>
       <c r="AB30" s="2"/>
       <c r="AC30" s="11"/>
       <c r="AD30" s="11"/>
     </row>
     <row r="31" spans="1:30" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="20"/>
-      <c r="Q31" s="20"/>
-      <c r="R31" s="20"/>
-      <c r="S31" s="20"/>
-      <c r="T31" s="20"/>
-      <c r="U31" s="20"/>
-      <c r="V31" s="20"/>
-      <c r="W31" s="20"/>
-      <c r="X31" s="20"/>
-      <c r="Z31" s="31"/>
-      <c r="AA31" s="26"/>
+      <c r="A31" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="17" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D31" s="20" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E31" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F31" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G31" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H31" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I31" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J31" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K31" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L31" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M31" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N31" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O31" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P31" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q31" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R31" s="20" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="S31" s="20" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="T31" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U31" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V31" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W31" s="20" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="X31" s="20" t="n">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="Z31" s="31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA31" s="26" t="n">
+        <v>0.0</v>
+      </c>
       <c r="AB31" s="2"/>
       <c r="AC31" s="11"/>
       <c r="AD31" s="11"/>
     </row>
     <row r="32" spans="1:30" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="20"/>
-      <c r="R32" s="20"/>
-      <c r="S32" s="20"/>
-      <c r="T32" s="20"/>
-      <c r="U32" s="20"/>
-      <c r="V32" s="20"/>
-      <c r="W32" s="20"/>
-      <c r="X32" s="20"/>
-      <c r="Z32" s="31"/>
-      <c r="AA32" s="26"/>
+      <c r="A32" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D32" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E32" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F32" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G32" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H32" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I32" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J32" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K32" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L32" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M32" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N32" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O32" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P32" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q32" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R32" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S32" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T32" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U32" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V32" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W32" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X32" s="20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z32" s="31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA32" s="26" t="n">
+        <v>0.0</v>
+      </c>
       <c r="AB32" s="2"/>
       <c r="AC32" s="11"/>
       <c r="AD32" s="11"/>
     </row>
     <row r="33" spans="1:30" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="20"/>
-      <c r="P33" s="20"/>
-      <c r="Q33" s="20"/>
-      <c r="R33" s="20"/>
-      <c r="S33" s="20"/>
-      <c r="T33" s="20"/>
-      <c r="U33" s="20"/>
-      <c r="V33" s="20"/>
-      <c r="W33" s="20"/>
-      <c r="X33" s="20"/>
-      <c r="Z33" s="31"/>
-      <c r="AA33" s="26"/>
+      <c r="A33" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="17" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D33" s="20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E33" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F33" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G33" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H33" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I33" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J33" s="20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K33" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L33" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M33" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N33" s="20" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O33" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P33" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q33" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R33" s="20" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="S33" s="20" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="T33" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U33" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V33" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W33" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X33" s="20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z33" s="31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA33" s="26" t="n">
+        <v>0.1</v>
+      </c>
       <c r="AB33" s="2"/>
       <c r="AC33" s="11"/>
       <c r="AD33" s="11"/>
     </row>
     <row r="34" spans="1:30" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="20"/>
-      <c r="O34" s="20"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="20"/>
-      <c r="R34" s="20"/>
-      <c r="S34" s="20"/>
-      <c r="T34" s="20"/>
-      <c r="U34" s="20"/>
-      <c r="V34" s="20"/>
-      <c r="W34" s="20"/>
-      <c r="X34" s="20"/>
-      <c r="Z34" s="31"/>
-      <c r="AA34" s="26"/>
+      <c r="A34" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="17" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D34" s="20" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E34" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F34" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G34" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H34" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I34" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J34" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K34" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L34" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M34" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N34" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O34" s="20" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="P34" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q34" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R34" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S34" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T34" s="20" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="U34" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V34" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W34" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X34" s="20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z34" s="31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA34" s="26" t="n">
+        <v>0.3</v>
+      </c>
       <c r="AB34" s="2"/>
       <c r="AC34" s="11"/>
       <c r="AD34" s="11"/>
